--- a/src/predicciones/holt_winters/producto_16.xlsx
+++ b/src/predicciones/holt_winters/producto_16.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,2838 +404,2838 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>2.044535467674528</v>
+        <v>2.269134765472388</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>1.788280791372959</v>
+        <v>1.251219894661294</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44932</v>
       </c>
       <c r="B4">
-        <v>2.388910659878728</v>
+        <v>3.422285989645057</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44933</v>
       </c>
       <c r="B5">
-        <v>2.226290781879274</v>
+        <v>1.575388796740083</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44934</v>
       </c>
       <c r="B6">
-        <v>2.114518025342986</v>
+        <v>2.183356001181697</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44936</v>
       </c>
       <c r="B7">
-        <v>2.442660656080126</v>
+        <v>3.036641181249234</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44937</v>
       </c>
       <c r="B8">
-        <v>2.069383155562502</v>
+        <v>1.554904335455968</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44938</v>
       </c>
       <c r="B9">
-        <v>2.045404359408424</v>
+        <v>2.270587984193655</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44940</v>
       </c>
       <c r="B10">
-        <v>1.789149683106856</v>
+        <v>1.252673113382561</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44941</v>
       </c>
       <c r="B11">
-        <v>2.389779551612624</v>
+        <v>3.423739208366325</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44943</v>
       </c>
       <c r="B12">
-        <v>2.22715967361317</v>
+        <v>1.57684201546135</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44944</v>
       </c>
       <c r="B13">
-        <v>2.115386917076882</v>
+        <v>2.184809219902965</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44945</v>
       </c>
       <c r="B14">
-        <v>2.443529547814022</v>
+        <v>3.038094399970501</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44946</v>
       </c>
       <c r="B15">
-        <v>2.070252047296398</v>
+        <v>1.556357554177236</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44947</v>
       </c>
       <c r="B16">
-        <v>2.04627325114232</v>
+        <v>2.272041202914923</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44948</v>
       </c>
       <c r="B17">
-        <v>1.790018574840752</v>
+        <v>1.254126332103829</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44949</v>
       </c>
       <c r="B18">
-        <v>2.39064844334652</v>
+        <v>3.425192427087593</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44950</v>
       </c>
       <c r="B19">
-        <v>2.228028565347067</v>
+        <v>1.578295234182618</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44952</v>
       </c>
       <c r="B20">
-        <v>2.116255808810778</v>
+        <v>2.186262438624232</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44953</v>
       </c>
       <c r="B21">
-        <v>2.444398439547918</v>
+        <v>3.039547618691769</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44954</v>
       </c>
       <c r="B22">
-        <v>2.071120939030294</v>
+        <v>1.557810772898503</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44956</v>
       </c>
       <c r="B23">
-        <v>2.047142142876216</v>
+        <v>2.273494421636191</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44957</v>
       </c>
       <c r="B24">
-        <v>1.790887466574647</v>
+        <v>1.255579550825097</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44960</v>
       </c>
       <c r="B25">
-        <v>2.391517335080416</v>
+        <v>3.42664564580886</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44962</v>
       </c>
       <c r="B26">
-        <v>2.228897457080963</v>
+        <v>1.579748452903886</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44966</v>
       </c>
       <c r="B27">
-        <v>2.117124700544674</v>
+        <v>2.1877156573455</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44967</v>
       </c>
       <c r="B28">
-        <v>2.445267331281814</v>
+        <v>3.041000837413037</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44968</v>
       </c>
       <c r="B29">
-        <v>2.07198983076419</v>
+        <v>1.559263991619771</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44972</v>
       </c>
       <c r="B30">
-        <v>2.048011034610112</v>
+        <v>2.274947640357459</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44973</v>
       </c>
       <c r="B31">
-        <v>1.791756358308544</v>
+        <v>1.257032769546365</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44974</v>
       </c>
       <c r="B32">
-        <v>2.392386226814312</v>
+        <v>3.428098864530128</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44975</v>
       </c>
       <c r="B33">
-        <v>2.229766348814858</v>
+        <v>1.581201671625153</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44976</v>
       </c>
       <c r="B34">
-        <v>2.11799359227857</v>
+        <v>2.189168876066768</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44977</v>
       </c>
       <c r="B35">
-        <v>2.44613622301571</v>
+        <v>3.042454056134304</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44979</v>
       </c>
       <c r="B36">
-        <v>2.072858722498086</v>
+        <v>1.560717210341039</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44980</v>
       </c>
       <c r="B37">
-        <v>2.048879926344009</v>
+        <v>2.276400859078726</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44985</v>
       </c>
       <c r="B38">
-        <v>1.79262525004244</v>
+        <v>1.258485988267632</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44986</v>
       </c>
       <c r="B39">
-        <v>2.393255118548208</v>
+        <v>3.429552083251395</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>44987</v>
       </c>
       <c r="B40">
-        <v>2.230635240548755</v>
+        <v>1.582654890346421</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>44991</v>
       </c>
       <c r="B41">
-        <v>2.118862484012466</v>
+        <v>2.190622094788035</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>44994</v>
       </c>
       <c r="B42">
-        <v>2.447005114749606</v>
+        <v>3.043907274855572</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>44995</v>
       </c>
       <c r="B43">
-        <v>2.073727614231982</v>
+        <v>1.562170429062307</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>44996</v>
       </c>
       <c r="B44">
-        <v>2.049748818077904</v>
+        <v>2.277854077799994</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>44999</v>
       </c>
       <c r="B45">
-        <v>1.793494141776336</v>
+        <v>1.2599392069889</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45001</v>
       </c>
       <c r="B46">
-        <v>2.394124010282104</v>
+        <v>3.431005301972663</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45003</v>
       </c>
       <c r="B47">
-        <v>2.231504132282651</v>
+        <v>1.584108109067689</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45005</v>
       </c>
       <c r="B48">
-        <v>2.119731375746362</v>
+        <v>2.192075313509303</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45006</v>
       </c>
       <c r="B49">
-        <v>2.447874006483502</v>
+        <v>3.045360493576839</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45007</v>
       </c>
       <c r="B50">
-        <v>2.074596505965879</v>
+        <v>1.563623647783574</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45008</v>
       </c>
       <c r="B51">
-        <v>2.0506177098118</v>
+        <v>2.279307296521262</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45012</v>
       </c>
       <c r="B52">
-        <v>1.794363033510232</v>
+        <v>1.261392425710168</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45013</v>
       </c>
       <c r="B53">
-        <v>2.394992902016</v>
+        <v>3.432458520693931</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45016</v>
       </c>
       <c r="B54">
-        <v>2.232373024016547</v>
+        <v>1.585561327788957</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45017</v>
       </c>
       <c r="B55">
-        <v>2.120600267480258</v>
+        <v>2.193528532230571</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45018</v>
       </c>
       <c r="B56">
-        <v>2.448742898217398</v>
+        <v>3.046813712298107</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45020</v>
       </c>
       <c r="B57">
-        <v>2.075465397699774</v>
+        <v>1.565076866504842</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45021</v>
       </c>
       <c r="B58">
-        <v>2.051486601545697</v>
+        <v>2.280760515242529</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45026</v>
       </c>
       <c r="B59">
-        <v>1.795231925244128</v>
+        <v>1.262845644431435</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45028</v>
       </c>
       <c r="B60">
-        <v>2.395861793749896</v>
+        <v>3.433911739415199</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45030</v>
       </c>
       <c r="B61">
-        <v>2.233241915750443</v>
+        <v>1.587014546510224</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45031</v>
       </c>
       <c r="B62">
-        <v>2.121469159214154</v>
+        <v>2.194981750951838</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45032</v>
       </c>
       <c r="B63">
-        <v>2.449611789951295</v>
+        <v>3.048266931019375</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45033</v>
       </c>
       <c r="B64">
-        <v>2.07633428943367</v>
+        <v>1.566530085226109</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45036</v>
       </c>
       <c r="B65">
-        <v>2.052355493279593</v>
+        <v>2.282213733963797</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45038</v>
       </c>
       <c r="B66">
-        <v>1.796100816978024</v>
+        <v>1.264298863152703</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45039</v>
       </c>
       <c r="B67">
-        <v>2.396730685483793</v>
+        <v>3.435364958136466</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45042</v>
       </c>
       <c r="B68">
-        <v>2.234110807484339</v>
+        <v>1.588467765231492</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45045</v>
       </c>
       <c r="B69">
-        <v>2.12233805094805</v>
+        <v>2.196434969673106</v>
       </c>
       <c r="C69">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45048</v>
       </c>
       <c r="B70">
-        <v>2.45048068168519</v>
+        <v>3.049720149740642</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45049</v>
       </c>
       <c r="B71">
-        <v>2.077203181167567</v>
+        <v>1.567983303947377</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45050</v>
       </c>
       <c r="B72">
-        <v>2.053224385013488</v>
+        <v>2.283666952685064</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45051</v>
       </c>
       <c r="B73">
-        <v>1.79696970871192</v>
+        <v>1.26575208187397</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45054</v>
       </c>
       <c r="B74">
-        <v>2.397599577217689</v>
+        <v>3.436818176857733</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45056</v>
       </c>
       <c r="B75">
-        <v>2.234979699218235</v>
+        <v>1.589920983952759</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45058</v>
       </c>
       <c r="B76">
-        <v>2.123206942681946</v>
+        <v>2.197888188394374</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45060</v>
       </c>
       <c r="B77">
-        <v>2.451349573419086</v>
+        <v>3.05117336846191</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45061</v>
       </c>
       <c r="B78">
-        <v>2.078072072901463</v>
+        <v>1.569436522668645</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45062</v>
       </c>
       <c r="B79">
-        <v>2.054093276747385</v>
+        <v>2.285120171406332</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45063</v>
       </c>
       <c r="B80">
-        <v>1.797838600445816</v>
+        <v>1.267205300595238</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45065</v>
       </c>
       <c r="B81">
-        <v>2.398468468951584</v>
+        <v>3.438271395579001</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45069</v>
       </c>
       <c r="B82">
-        <v>2.235848590952131</v>
+        <v>1.591374202674027</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45071</v>
       </c>
       <c r="B83">
-        <v>2.124075834415842</v>
+        <v>2.199341407115641</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45072</v>
       </c>
       <c r="B84">
-        <v>2.452218465152983</v>
+        <v>3.052626587183178</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45073</v>
       </c>
       <c r="B85">
-        <v>2.078940964635359</v>
+        <v>1.570889741389912</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45074</v>
       </c>
       <c r="B86">
-        <v>2.054962168481281</v>
+        <v>2.2865733901276</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45075</v>
       </c>
       <c r="B87">
-        <v>1.798707492179712</v>
+        <v>1.268658519316506</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45076</v>
       </c>
       <c r="B88">
-        <v>2.399337360685481</v>
+        <v>3.439724614300269</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45077</v>
       </c>
       <c r="B89">
-        <v>2.236717482686027</v>
+        <v>1.592827421395295</v>
       </c>
       <c r="C89">
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45078</v>
       </c>
       <c r="B90">
-        <v>2.124944726149738</v>
+        <v>2.200794625836909</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45079</v>
       </c>
       <c r="B91">
-        <v>2.453087356886879</v>
+        <v>3.054079805904446</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45080</v>
       </c>
       <c r="B92">
-        <v>2.079809856369255</v>
+        <v>1.57234296011118</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45081</v>
       </c>
       <c r="B93">
-        <v>2.055831060215177</v>
+        <v>2.288026608848867</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45082</v>
       </c>
       <c r="B94">
-        <v>1.799576383913608</v>
+        <v>1.270111738037773</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45083</v>
       </c>
       <c r="B95">
-        <v>2.400206252419377</v>
+        <v>3.441177833021537</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45084</v>
       </c>
       <c r="B96">
-        <v>2.237586374419923</v>
+        <v>1.594280640116562</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45085</v>
       </c>
       <c r="B97">
-        <v>2.125813617883634</v>
+        <v>2.202247844558177</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45086</v>
       </c>
       <c r="B98">
-        <v>2.453956248620775</v>
+        <v>3.055533024625713</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45088</v>
       </c>
       <c r="B99">
-        <v>2.080678748103151</v>
+        <v>1.573796178832448</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45090</v>
       </c>
       <c r="B100">
-        <v>2.056699951949073</v>
+        <v>2.289479827570135</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45091</v>
       </c>
       <c r="B101">
-        <v>1.800445275647504</v>
+        <v>1.271564956759041</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45092</v>
       </c>
       <c r="B102">
-        <v>2.401075144153273</v>
+        <v>3.442631051742804</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45094</v>
       </c>
       <c r="B103">
-        <v>2.238455266153819</v>
+        <v>1.59573385883783</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45097</v>
       </c>
       <c r="B104">
-        <v>2.126682509617531</v>
+        <v>2.203701063279444</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45099</v>
       </c>
       <c r="B105">
-        <v>2.454825140354671</v>
+        <v>3.056986243346981</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45101</v>
       </c>
       <c r="B106">
-        <v>2.081547639837047</v>
+        <v>1.575249397553715</v>
       </c>
       <c r="C106">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45104</v>
       </c>
       <c r="B107">
-        <v>2.057568843682969</v>
+        <v>2.290933046291403</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45105</v>
       </c>
       <c r="B108">
-        <v>1.8013141673814</v>
+        <v>1.273018175480309</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45106</v>
       </c>
       <c r="B109">
-        <v>2.401944035887169</v>
+        <v>3.444084270464072</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45107</v>
       </c>
       <c r="B110">
-        <v>2.239324157887715</v>
+        <v>1.597187077559098</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45108</v>
       </c>
       <c r="B111">
-        <v>2.127551401351427</v>
+        <v>2.205154282000712</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45110</v>
       </c>
       <c r="B112">
-        <v>2.455694032088567</v>
+        <v>3.058439462068248</v>
       </c>
       <c r="C112">
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45112</v>
       </c>
       <c r="B113">
-        <v>2.082416531570943</v>
+        <v>1.576702616274983</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45113</v>
       </c>
       <c r="B114">
-        <v>2.058437735416865</v>
+        <v>2.292386265012671</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45114</v>
       </c>
       <c r="B115">
-        <v>1.802183059115297</v>
+        <v>1.274471394201577</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45115</v>
       </c>
       <c r="B116">
-        <v>2.402812927621065</v>
+        <v>3.445537489185339</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45116</v>
       </c>
       <c r="B117">
-        <v>2.240193049621611</v>
+        <v>1.598640296280365</v>
       </c>
       <c r="C117">
         <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45120</v>
       </c>
       <c r="B118">
-        <v>2.128420293085322</v>
+        <v>2.206607500721979</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45122</v>
       </c>
       <c r="B119">
-        <v>2.456562923822463</v>
+        <v>3.059892680789516</v>
       </c>
       <c r="C119">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45124</v>
       </c>
       <c r="B120">
-        <v>2.083285423304839</v>
+        <v>1.578155834996251</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45125</v>
       </c>
       <c r="B121">
-        <v>2.059306627150761</v>
+        <v>2.293839483733938</v>
       </c>
       <c r="C121">
         <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45128</v>
       </c>
       <c r="B122">
-        <v>1.803051950849193</v>
+        <v>1.275924612922844</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45131</v>
       </c>
       <c r="B123">
-        <v>2.403681819354961</v>
+        <v>3.446990707906608</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45132</v>
       </c>
       <c r="B124">
-        <v>2.241061941355508</v>
+        <v>1.600093515001633</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45134</v>
       </c>
       <c r="B125">
-        <v>2.129289184819219</v>
+        <v>2.208060719443247</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45135</v>
       </c>
       <c r="B126">
-        <v>2.457431815556359</v>
+        <v>3.061345899510784</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45136</v>
       </c>
       <c r="B127">
-        <v>2.084154315038735</v>
+        <v>1.579609053717518</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45138</v>
       </c>
       <c r="B128">
-        <v>2.060175518884657</v>
+        <v>2.295292702455206</v>
       </c>
       <c r="C128">
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45142</v>
       </c>
       <c r="B129">
-        <v>1.803920842583088</v>
+        <v>1.277377831644112</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45143</v>
       </c>
       <c r="B130">
-        <v>2.404550711088857</v>
+        <v>3.448443926627875</v>
       </c>
       <c r="C130">
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45144</v>
       </c>
       <c r="B131">
-        <v>2.241930833089403</v>
+        <v>1.601546733722901</v>
       </c>
       <c r="C131">
         <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45145</v>
       </c>
       <c r="B132">
-        <v>2.130158076553115</v>
+        <v>2.209513938164515</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45148</v>
       </c>
       <c r="B133">
-        <v>2.458300707290255</v>
+        <v>3.062799118232051</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45149</v>
       </c>
       <c r="B134">
-        <v>2.085023206772631</v>
+        <v>1.581062272438786</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45150</v>
       </c>
       <c r="B135">
-        <v>2.061044410618553</v>
+        <v>2.296745921176473</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45151</v>
       </c>
       <c r="B136">
-        <v>1.804789734316985</v>
+        <v>1.278831050365379</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45152</v>
       </c>
       <c r="B137">
-        <v>2.405419602822753</v>
+        <v>3.449897145349142</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45154</v>
       </c>
       <c r="B138">
-        <v>2.242799724823299</v>
+        <v>1.602999952444168</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45155</v>
       </c>
       <c r="B139">
-        <v>2.131026968287011</v>
+        <v>2.210967156885783</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45156</v>
       </c>
       <c r="B140">
-        <v>2.459169599024151</v>
+        <v>3.064252336953319</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45157</v>
       </c>
       <c r="B141">
-        <v>2.085892098506527</v>
+        <v>1.582515491160053</v>
       </c>
       <c r="C141">
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45158</v>
       </c>
       <c r="B142">
-        <v>2.061913302352449</v>
+        <v>2.298199139897741</v>
       </c>
       <c r="C142">
         <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45159</v>
       </c>
       <c r="B143">
-        <v>1.805658626050881</v>
+        <v>1.280284269086647</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45160</v>
       </c>
       <c r="B144">
-        <v>2.406288494556649</v>
+        <v>3.45135036407041</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45162</v>
       </c>
       <c r="B145">
-        <v>2.243668616557196</v>
+        <v>1.604453171165436</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45163</v>
       </c>
       <c r="B146">
-        <v>2.131895860020907</v>
+        <v>2.21242037560705</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45165</v>
       </c>
       <c r="B147">
-        <v>2.460038490758047</v>
+        <v>3.065705555674587</v>
       </c>
       <c r="C147">
         <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45167</v>
       </c>
       <c r="B148">
-        <v>2.086760990240423</v>
+        <v>1.583968709881321</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45168</v>
       </c>
       <c r="B149">
-        <v>2.062782194086345</v>
+        <v>2.299652358619009</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45169</v>
       </c>
       <c r="B150">
-        <v>1.806527517784777</v>
+        <v>1.281737487807915</v>
       </c>
       <c r="C150">
         <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45170</v>
       </c>
       <c r="B151">
-        <v>2.407157386290545</v>
+        <v>3.452803582791678</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45173</v>
       </c>
       <c r="B152">
-        <v>2.244537508291092</v>
+        <v>1.605906389886704</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45174</v>
       </c>
       <c r="B153">
-        <v>2.132764751754803</v>
+        <v>2.213873594328318</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45175</v>
       </c>
       <c r="B154">
-        <v>2.460907382491943</v>
+        <v>3.067158774395854</v>
       </c>
       <c r="C154">
         <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45177</v>
       </c>
       <c r="B155">
-        <v>2.08762988197432</v>
+        <v>1.585421928602589</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45178</v>
       </c>
       <c r="B156">
-        <v>2.063651085820241</v>
+        <v>2.301105577340276</v>
       </c>
       <c r="C156">
         <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45179</v>
       </c>
       <c r="B157">
-        <v>1.807396409518673</v>
+        <v>1.283190706529182</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45180</v>
       </c>
       <c r="B158">
-        <v>2.408026278024441</v>
+        <v>3.454256801512946</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45181</v>
       </c>
       <c r="B159">
-        <v>2.245406400024988</v>
+        <v>1.607359608607971</v>
       </c>
       <c r="C159">
         <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45186</v>
       </c>
       <c r="B160">
-        <v>2.133633643488699</v>
+        <v>2.215326813049586</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45189</v>
       </c>
       <c r="B161">
-        <v>2.461776274225839</v>
+        <v>3.068611993117122</v>
       </c>
       <c r="C161">
         <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45192</v>
       </c>
       <c r="B162">
-        <v>2.088498773708215</v>
+        <v>1.586875147323857</v>
       </c>
       <c r="C162">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45193</v>
       </c>
       <c r="B163">
-        <v>2.064519977554137</v>
+        <v>2.302558796061544</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45194</v>
       </c>
       <c r="B164">
-        <v>1.808265301252569</v>
+        <v>1.28464392525045</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45196</v>
       </c>
       <c r="B165">
-        <v>2.408895169758337</v>
+        <v>3.455710020234213</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45197</v>
       </c>
       <c r="B166">
-        <v>2.246275291758884</v>
+        <v>1.608812827329239</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45198</v>
       </c>
       <c r="B167">
-        <v>2.134502535222595</v>
+        <v>2.216780031770853</v>
       </c>
       <c r="C167">
         <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45199</v>
       </c>
       <c r="B168">
-        <v>2.462645165959735</v>
+        <v>3.07006521183839</v>
       </c>
       <c r="C168">
         <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45201</v>
       </c>
       <c r="B169">
-        <v>2.089367665442111</v>
+        <v>1.588328366045124</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45203</v>
       </c>
       <c r="B170">
-        <v>2.065388869288034</v>
+        <v>2.304012014782812</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
+      <c r="A171" s="2">
+        <v>45206</v>
       </c>
       <c r="B171">
-        <v>1.809134192986465</v>
+        <v>1.286097143971718</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
+      <c r="A172" s="2">
+        <v>45209</v>
       </c>
       <c r="B172">
-        <v>2.409764061492234</v>
+        <v>3.457163238955481</v>
       </c>
       <c r="C172">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
+      <c r="A173" s="2">
+        <v>45211</v>
       </c>
       <c r="B173">
-        <v>2.24714418349278</v>
+        <v>1.610266046050507</v>
       </c>
       <c r="C173">
         <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
+      <c r="A174" s="2">
+        <v>45213</v>
       </c>
       <c r="B174">
-        <v>2.135371426956491</v>
+        <v>2.218233250492121</v>
       </c>
       <c r="C174">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
+      <c r="A175" s="2">
+        <v>45214</v>
       </c>
       <c r="B175">
-        <v>2.463514057693631</v>
+        <v>3.071518430559657</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
+      <c r="A176" s="2">
+        <v>45215</v>
       </c>
       <c r="B176">
-        <v>2.090236557176008</v>
+        <v>1.589781584766392</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
+      <c r="A177" s="2">
+        <v>45216</v>
       </c>
       <c r="B177">
-        <v>2.066257761021929</v>
+        <v>2.305465233504079</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
+      <c r="A178" s="2">
+        <v>45217</v>
       </c>
       <c r="B178">
-        <v>1.810003084720361</v>
+        <v>1.287550362692985</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
+      <c r="A179" s="2">
+        <v>45219</v>
       </c>
       <c r="B179">
-        <v>2.41063295322613</v>
+        <v>3.458616457676748</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
+      <c r="A180" s="2">
+        <v>45220</v>
       </c>
       <c r="B180">
-        <v>2.248013075226676</v>
+        <v>1.611719264771774</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
+      <c r="A181" s="2">
+        <v>45224</v>
       </c>
       <c r="B181">
-        <v>2.136240318690387</v>
+        <v>2.219686469213388</v>
       </c>
       <c r="C181">
         <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
+      <c r="A182" s="2">
+        <v>45229</v>
       </c>
       <c r="B182">
-        <v>2.464382949427527</v>
+        <v>3.072971649280925</v>
       </c>
       <c r="C182">
         <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
+      <c r="A183" s="2">
+        <v>45234</v>
       </c>
       <c r="B183">
-        <v>2.091105448909904</v>
+        <v>1.59123480348766</v>
       </c>
       <c r="C183">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
+      <c r="A184" s="2">
+        <v>45237</v>
       </c>
       <c r="B184">
-        <v>2.067126652755825</v>
+        <v>2.306918452225347</v>
       </c>
       <c r="C184">
         <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
+      <c r="A185" s="2">
+        <v>45240</v>
       </c>
       <c r="B185">
-        <v>1.810871976454257</v>
+        <v>1.289003581414253</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
+      <c r="A186" s="2">
+        <v>45241</v>
       </c>
       <c r="B186">
-        <v>2.411501844960025</v>
+        <v>3.460069676398017</v>
       </c>
       <c r="C186">
         <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
+      <c r="A187" s="2">
+        <v>45243</v>
       </c>
       <c r="B187">
-        <v>2.248881966960572</v>
+        <v>1.613172483493042</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
+      <c r="A188" s="2">
+        <v>45245</v>
       </c>
       <c r="B188">
-        <v>2.137109210424283</v>
+        <v>2.221139687934656</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
+      <c r="A189" s="2">
+        <v>45247</v>
       </c>
       <c r="B189">
-        <v>2.465251841161423</v>
+        <v>3.074424868002192</v>
       </c>
       <c r="C189">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
+      <c r="A190" s="2">
+        <v>45248</v>
       </c>
       <c r="B190">
-        <v>2.091974340643799</v>
+        <v>1.592688022208927</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
+      <c r="A191" s="2">
+        <v>45250</v>
       </c>
       <c r="B191">
-        <v>2.067995544489722</v>
+        <v>2.308371670946614</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
+      <c r="A192" s="2">
+        <v>45252</v>
       </c>
       <c r="B192">
-        <v>1.811740868188153</v>
+        <v>1.290456800135521</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
+      <c r="A193" s="2">
+        <v>45253</v>
       </c>
       <c r="B193">
-        <v>2.412370736693922</v>
+        <v>3.461522895119284</v>
       </c>
       <c r="C193">
         <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
+      <c r="A194" s="2">
+        <v>45254</v>
       </c>
       <c r="B194">
-        <v>2.249750858694468</v>
+        <v>1.61462570221431</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
+      <c r="A195" s="2">
+        <v>45255</v>
       </c>
       <c r="B195">
-        <v>2.137978102158179</v>
+        <v>2.222592906655924</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
+      <c r="A196" s="2">
+        <v>45256</v>
       </c>
       <c r="B196">
-        <v>2.46612073289532</v>
+        <v>3.07587808672346</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
+      <c r="A197" s="2">
+        <v>45257</v>
       </c>
       <c r="B197">
-        <v>2.092843232377696</v>
+        <v>1.594141240930195</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
+      <c r="A198" s="2">
+        <v>45259</v>
       </c>
       <c r="B198">
-        <v>2.068864436223618</v>
+        <v>2.309824889667882</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
+      <c r="A199" s="2">
+        <v>45260</v>
       </c>
       <c r="B199">
-        <v>1.812609759922049</v>
+        <v>1.291910018856788</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
+      <c r="A200" s="2">
+        <v>45261</v>
       </c>
       <c r="B200">
-        <v>2.413239628427818</v>
+        <v>3.462976113840551</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
+      <c r="A201" s="2">
+        <v>45263</v>
       </c>
       <c r="B201">
-        <v>2.250619750428364</v>
+        <v>1.616078920935577</v>
       </c>
       <c r="C201">
         <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
+      <c r="A202" s="2">
+        <v>45265</v>
       </c>
       <c r="B202">
-        <v>2.138846993892075</v>
+        <v>2.224046125377191</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
+      <c r="A203" s="2">
+        <v>45267</v>
       </c>
       <c r="B203">
-        <v>2.466989624629216</v>
+        <v>3.077331305444728</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
+      <c r="A204" s="2">
+        <v>45269</v>
       </c>
       <c r="B204">
-        <v>2.093712124111592</v>
+        <v>1.595594459651462</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
+      <c r="A205" s="2">
+        <v>45270</v>
       </c>
       <c r="B205">
-        <v>2.069733327957514</v>
+        <v>2.31127810838915</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
+      <c r="A206" s="2">
+        <v>45271</v>
       </c>
       <c r="B206">
-        <v>1.813478651655945</v>
+        <v>1.293363237578056</v>
       </c>
       <c r="C206">
         <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
+      <c r="A207" s="2">
+        <v>45272</v>
       </c>
       <c r="B207">
-        <v>2.414108520161714</v>
+        <v>3.464429332561819</v>
       </c>
       <c r="C207">
         <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
+      <c r="A208" s="2">
+        <v>45274</v>
       </c>
       <c r="B208">
-        <v>2.25148864216226</v>
+        <v>1.617532139656845</v>
       </c>
       <c r="C208">
         <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
+      <c r="A209" s="2">
+        <v>45275</v>
       </c>
       <c r="B209">
-        <v>2.139715885625971</v>
+        <v>2.225499344098459</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
+      <c r="A210" s="2">
+        <v>45276</v>
       </c>
       <c r="B210">
-        <v>2.467858516363111</v>
+        <v>3.078784524165996</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
+      <c r="A211" s="2">
+        <v>45277</v>
       </c>
       <c r="B211">
-        <v>2.094581015845488</v>
+        <v>1.59704767837273</v>
       </c>
       <c r="C211">
         <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
+      <c r="A212" s="2">
+        <v>45278</v>
       </c>
       <c r="B212">
-        <v>2.07060221969141</v>
+        <v>2.312731327110418</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
+      <c r="A213" s="2">
+        <v>45279</v>
       </c>
       <c r="B213">
-        <v>1.814347543389841</v>
+        <v>1.294816456299324</v>
       </c>
       <c r="C213">
         <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
+      <c r="A214" s="2">
+        <v>45280</v>
       </c>
       <c r="B214">
-        <v>2.41497741189561</v>
+        <v>3.465882551283086</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>213</v>
+      <c r="A215" s="2">
+        <v>45282</v>
       </c>
       <c r="B215">
-        <v>2.252357533896156</v>
+        <v>1.618985358378112</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>214</v>
+      <c r="A216" s="2">
+        <v>45283</v>
       </c>
       <c r="B216">
-        <v>2.140584777359868</v>
+        <v>2.226952562819727</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>215</v>
+      <c r="A217" s="2">
+        <v>45284</v>
       </c>
       <c r="B217">
-        <v>2.468727408097008</v>
+        <v>3.080237742887263</v>
       </c>
       <c r="C217">
         <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>216</v>
+      <c r="A218" s="2">
+        <v>45287</v>
       </c>
       <c r="B218">
-        <v>2.095449907579384</v>
+        <v>1.598500897093998</v>
       </c>
       <c r="C218">
         <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>217</v>
+      <c r="A219" s="2">
+        <v>45288</v>
       </c>
       <c r="B219">
-        <v>2.071471111425306</v>
+        <v>2.314184545831685</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>218</v>
+      <c r="A220" s="2">
+        <v>45290</v>
       </c>
       <c r="B220">
-        <v>1.815216435123737</v>
+        <v>1.296269675020591</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>219</v>
+      <c r="A221" s="2">
+        <v>45291</v>
       </c>
       <c r="B221">
-        <v>2.415846303629506</v>
+        <v>3.467335770004355</v>
       </c>
       <c r="C221">
         <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>220</v>
+      <c r="A222" s="2">
+        <v>45293</v>
       </c>
       <c r="B222">
-        <v>2.253226425630052</v>
+        <v>1.62043857709938</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>221</v>
+      <c r="A223" s="2">
+        <v>45294</v>
       </c>
       <c r="B223">
-        <v>2.141453669093763</v>
+        <v>2.228405781540995</v>
       </c>
       <c r="C223">
         <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>222</v>
+      <c r="A224" s="2">
+        <v>45299</v>
       </c>
       <c r="B224">
-        <v>2.469596299830904</v>
+        <v>3.081690961608531</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>223</v>
+      <c r="A225" s="2">
+        <v>45300</v>
       </c>
       <c r="B225">
-        <v>2.09631879931328</v>
+        <v>1.599954115815265</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>224</v>
+      <c r="A226" s="2">
+        <v>45302</v>
       </c>
       <c r="B226">
-        <v>2.072340003159202</v>
+        <v>2.315637764552953</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>225</v>
+      <c r="A227" s="2">
+        <v>45303</v>
       </c>
       <c r="B227">
-        <v>1.816085326857634</v>
+        <v>1.297722893741859</v>
       </c>
       <c r="C227">
         <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>226</v>
+      <c r="A228" s="2">
+        <v>45305</v>
       </c>
       <c r="B228">
-        <v>2.416715195363402</v>
+        <v>3.468788988725622</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>227</v>
+      <c r="A229" s="2">
+        <v>45306</v>
       </c>
       <c r="B229">
-        <v>2.254095317363948</v>
+        <v>1.621891795820648</v>
       </c>
       <c r="C229">
         <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>228</v>
+      <c r="A230" s="2">
+        <v>45307</v>
       </c>
       <c r="B230">
-        <v>2.142322560827659</v>
+        <v>2.229859000262262</v>
       </c>
       <c r="C230">
         <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>229</v>
+      <c r="A231" s="2">
+        <v>45310</v>
       </c>
       <c r="B231">
-        <v>2.4704651915648</v>
+        <v>3.083144180329799</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="1">
-        <v>230</v>
+      <c r="A232" s="2">
+        <v>45311</v>
       </c>
       <c r="B232">
-        <v>2.097187691047176</v>
+        <v>1.601407334536533</v>
       </c>
       <c r="C232">
         <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="1">
-        <v>231</v>
+      <c r="A233" s="2">
+        <v>45313</v>
       </c>
       <c r="B233">
-        <v>2.073208894893098</v>
+        <v>2.317090983274221</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="1">
-        <v>232</v>
+      <c r="A234" s="2">
+        <v>45315</v>
       </c>
       <c r="B234">
-        <v>1.816954218591529</v>
+        <v>1.299176112463127</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="1">
-        <v>233</v>
+      <c r="A235" s="2">
+        <v>45317</v>
       </c>
       <c r="B235">
-        <v>2.417584087097298</v>
+        <v>3.47024220744689</v>
       </c>
       <c r="C235">
         <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="1">
-        <v>234</v>
+      <c r="A236" s="2">
+        <v>45318</v>
       </c>
       <c r="B236">
-        <v>2.254964209097844</v>
+        <v>1.623345014541916</v>
       </c>
       <c r="C236">
         <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="1">
-        <v>235</v>
+      <c r="A237" s="2">
+        <v>45319</v>
       </c>
       <c r="B237">
-        <v>2.143191452561556</v>
+        <v>2.23131221898353</v>
       </c>
       <c r="C237">
         <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="1">
-        <v>236</v>
+      <c r="A238" s="2">
+        <v>45320</v>
       </c>
       <c r="B238">
-        <v>2.471334083298696</v>
+        <v>3.084597399051066</v>
       </c>
       <c r="C238">
         <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="1">
-        <v>237</v>
+      <c r="A239" s="2">
+        <v>45321</v>
       </c>
       <c r="B239">
-        <v>2.098056582781072</v>
+        <v>1.602860553257801</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="1">
-        <v>238</v>
+      <c r="A240" s="2">
+        <v>45323</v>
       </c>
       <c r="B240">
-        <v>2.074077786626994</v>
+        <v>2.318544201995488</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="1">
-        <v>239</v>
+      <c r="A241" s="2">
+        <v>45325</v>
       </c>
       <c r="B241">
-        <v>1.817823110325425</v>
+        <v>1.300629331184394</v>
       </c>
       <c r="C241">
         <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="1">
-        <v>240</v>
+      <c r="A242" s="2">
+        <v>45327</v>
       </c>
       <c r="B242">
-        <v>2.418452978831194</v>
+        <v>3.471695426168157</v>
       </c>
       <c r="C242">
         <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="1">
-        <v>241</v>
+      <c r="A243" s="2">
+        <v>45330</v>
       </c>
       <c r="B243">
-        <v>2.25583310083174</v>
+        <v>1.624798233263183</v>
       </c>
       <c r="C243">
         <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="1">
-        <v>242</v>
+      <c r="A244" s="2">
+        <v>45331</v>
       </c>
       <c r="B244">
-        <v>2.144060344295452</v>
+        <v>2.232765437704797</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="1">
-        <v>243</v>
+      <c r="A245" s="2">
+        <v>45332</v>
       </c>
       <c r="B245">
-        <v>2.472202975032592</v>
+        <v>3.086050617772334</v>
       </c>
       <c r="C245">
         <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="1">
-        <v>244</v>
+      <c r="A246" s="2">
+        <v>45333</v>
       </c>
       <c r="B246">
-        <v>2.098925474514968</v>
+        <v>1.604313771979069</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="1">
-        <v>245</v>
+      <c r="A247" s="2">
+        <v>45334</v>
       </c>
       <c r="B247">
-        <v>2.07494667836089</v>
+        <v>2.319997420716756</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="1">
-        <v>246</v>
+      <c r="A248" s="2">
+        <v>45336</v>
       </c>
       <c r="B248">
-        <v>1.818692002059322</v>
+        <v>1.302082549905662</v>
       </c>
       <c r="C248">
         <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="1">
-        <v>247</v>
+      <c r="A249" s="2">
+        <v>45338</v>
       </c>
       <c r="B249">
-        <v>2.41932187056509</v>
+        <v>3.473148644889426</v>
       </c>
       <c r="C249">
         <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="1">
-        <v>248</v>
+      <c r="A250" s="2">
+        <v>45339</v>
       </c>
       <c r="B250">
-        <v>2.256701992565636</v>
+        <v>1.626251451984451</v>
       </c>
       <c r="C250">
         <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="1">
-        <v>249</v>
+      <c r="A251" s="2">
+        <v>45340</v>
       </c>
       <c r="B251">
-        <v>2.144929236029348</v>
+        <v>2.234218656426065</v>
       </c>
       <c r="C251">
         <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="1">
-        <v>250</v>
+      <c r="A252" s="2">
+        <v>45342</v>
       </c>
       <c r="B252">
-        <v>2.473071866766488</v>
+        <v>3.087503836493601</v>
       </c>
       <c r="C252">
         <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="1">
-        <v>251</v>
+      <c r="A253" s="2">
+        <v>45343</v>
       </c>
       <c r="B253">
-        <v>2.099794366248864</v>
+        <v>1.605766990700336</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="1">
-        <v>252</v>
+      <c r="A254" s="2">
+        <v>45345</v>
       </c>
       <c r="B254">
-        <v>2.075815570094786</v>
+        <v>2.321450639438023</v>
       </c>
       <c r="C254">
         <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="1">
-        <v>253</v>
+      <c r="A255" s="2">
+        <v>45346</v>
       </c>
       <c r="B255">
-        <v>1.819560893793218</v>
+        <v>1.30353576862693</v>
       </c>
       <c r="C255">
         <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="1">
-        <v>254</v>
+      <c r="A256" s="2">
+        <v>45347</v>
       </c>
       <c r="B256">
-        <v>2.420190762298986</v>
+        <v>3.474601863610693</v>
       </c>
       <c r="C256">
         <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="1">
-        <v>255</v>
+      <c r="A257" s="2">
+        <v>45348</v>
       </c>
       <c r="B257">
-        <v>2.257570884299533</v>
+        <v>1.627704670705719</v>
       </c>
       <c r="C257">
         <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="1">
-        <v>256</v>
+      <c r="A258" s="2">
+        <v>45349</v>
       </c>
       <c r="B258">
-        <v>2.145798127763244</v>
+        <v>2.235671875147333</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="1">
-        <v>257</v>
+      <c r="A259" s="2">
+        <v>45350</v>
       </c>
       <c r="B259">
-        <v>2.473940758500384</v>
+        <v>3.088957055214869</v>
       </c>
       <c r="C259">
         <v>3</v>
